--- a/linguistic_analysis/experiment_2/correlations.xlsx
+++ b/linguistic_analysis/experiment_2/correlations.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="0" windowWidth="12800" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="19020" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VSM-human" sheetId="1" r:id="rId1"/>
+    <sheet name="forced choice" sheetId="2" r:id="rId2"/>
+    <sheet name="VSM-human sectioned" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,49 +22,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>ooe</t>
-  </si>
-  <si>
-    <t>rel freq</t>
-  </si>
-  <si>
-    <t>thresholded</t>
-  </si>
-  <si>
-    <t>pmi</t>
-  </si>
-  <si>
-    <t>norm pmi</t>
-  </si>
-  <si>
-    <t>pmi smooth</t>
-  </si>
-  <si>
-    <t>crpmi</t>
-  </si>
-  <si>
-    <t>kennedy</t>
-  </si>
-  <si>
-    <t>kennedy_extended</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>Theory up</t>
+  </si>
+  <si>
+    <t>Theory down</t>
+  </si>
+  <si>
+    <t>Theory split</t>
+  </si>
+  <si>
+    <t>Theory Split</t>
+  </si>
+  <si>
+    <t>ratings</t>
+  </si>
+  <si>
+    <t>CRPMI</t>
+  </si>
+  <si>
+    <t>Smoothed PMI</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>inten</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>rating theory</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>VSM theory</t>
+  </si>
+  <si>
+    <t>Exp 2</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>OOE</t>
+  </si>
+  <si>
+    <t>Rel. Freq.</t>
+  </si>
+  <si>
+    <t>Thresholded</t>
+  </si>
+  <si>
+    <t>PMI Smooth</t>
+  </si>
+  <si>
+    <t>CDPMI</t>
+  </si>
+  <si>
+    <t>CDPMI Smooth</t>
+  </si>
+  <si>
+    <t>CDPMI smooth</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Exp 1+2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,13 +132,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,18 +172,399 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="39">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VSM-human'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exp 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'VSM-human'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Raw</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OOE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rel. Freq.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thresholded</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PMI Smooth</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CDPMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CDPMI Smooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VSM-human'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VSM-human'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exp 1+2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'VSM-human'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Raw</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Log</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OOE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rel. Freq.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thresholded</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PMI Smooth</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CDPMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CDPMI Smooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VSM-human'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="340052392"/>
+        <c:axId val="340054952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="340052392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="340054952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340054952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="340052392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488952</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387352</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,22 +892,22 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0.1789</v>
@@ -452,7 +918,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0.36620000000000003</v>
@@ -463,7 +929,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0.30120000000000002</v>
@@ -474,7 +940,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0.1928</v>
@@ -485,7 +951,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0.29380000000000001</v>
@@ -496,7 +962,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.27879999999999999</v>
@@ -507,7 +973,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0.50870000000000004</v>
@@ -518,39 +984,1150 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.55410000000000004</v>
+        <v>0.49609999999999999</v>
       </c>
       <c r="C9">
-        <v>0.49680000000000002</v>
+        <v>0.42570000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0.47170000000000001</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="C10">
-        <v>0.42570000000000002</v>
+        <v>0.4733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0.53480000000000005</v>
-      </c>
-      <c r="C11">
-        <v>0.4733</v>
+        <v>0.53969999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>482</v>
+      </c>
+      <c r="D5">
+        <v>375</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>485</v>
+      </c>
+      <c r="C6">
+        <v>451</v>
+      </c>
+      <c r="D6">
+        <v>375</v>
+      </c>
+      <c r="E6">
+        <v>505</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>485</v>
+      </c>
+      <c r="C7">
+        <v>451</v>
+      </c>
+      <c r="D7">
+        <v>375</v>
+      </c>
+      <c r="E7">
+        <v>505</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>472</v>
+      </c>
+      <c r="D8">
+        <v>345</v>
+      </c>
+      <c r="E8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>491</v>
+      </c>
+      <c r="D9">
+        <v>377</v>
+      </c>
+      <c r="E9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>B5/686</f>
+        <v>0.74635568513119532</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:E23" si="0">C5/686</f>
+        <v>0.70262390670553931</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.54664723032069973</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:E24" si="1">B6/686</f>
+        <v>0.70699708454810495</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.6574344023323615</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.54664723032069973</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.73615160349854225</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:E25" si="2">B7/686</f>
+        <v>0.70699708454810495</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>0.6574344023323615</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.54664723032069973</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.73615160349854225</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:E26" si="3">B8/686</f>
+        <v>0.68804664723032072</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.50291545189504372</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.71574344023323611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:E27" si="4">B9/686</f>
+        <v>0.71574344023323611</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>0.54956268221574345</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>0.74781341107871724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.254</v>
+      </c>
+      <c r="G2">
+        <v>0.38019999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.49349999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.2157</v>
+      </c>
+      <c r="C4">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.39319999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.32</v>
+      </c>
+      <c r="C5">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="D5">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.45079999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.5665</v>
+      </c>
+      <c r="E7">
+        <v>0.28249999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>196</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:E6" si="1">SUM(C2:C5)</f>
+        <v>245</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f>SUM(B9:E9)</f>
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <f>B9/B2</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:M9" si="2">C9/C2</f>
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="3">SUM(B10:E10)</f>
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I13" si="4">B10/B3</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J13" si="5">C10/C3</f>
+        <v>0.76</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="6">D10/D3</f>
+        <v>0.9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L13" si="7">E10/E3</f>
+        <v>0.45</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M13" si="8">F10/F3</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.88</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13">
+        <f>SUM(B9:B12)</f>
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="9">SUM(C9:C12)</f>
+        <v>218</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="10">SUM(D9:D12)</f>
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="11">SUM(E9:E12)</f>
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <f>SUM(B13:E13)</f>
+        <v>450</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.65306122448979587</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0.88979591836734695</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>0.76530612244897955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B16:E16)</f>
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <f>B16/B2</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:M16" si="12">C16/C2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>0.5092592592592593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="13">SUM(B17:E17)</f>
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="14">B17/B3</f>
+        <v>0.85</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J20" si="15">C17/C3</f>
+        <v>0.74</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K20" si="16">D17/D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L20" si="17">E17/E3</f>
+        <v>0.65</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M20" si="18">F17/F3</f>
+        <v>0.7416666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>0.625</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="15"/>
+        <v>0.76</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="18"/>
+        <v>0.64166666666666672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="14"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="15"/>
+        <v>0.84</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="18"/>
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20">
+        <f>SUM(B16:B19)</f>
+        <v>155</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20" si="19">SUM(C16:C19)</f>
+        <v>179</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="20">SUM(D16:D19)</f>
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="21">SUM(E16:E19)</f>
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>424</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="14"/>
+        <v>0.79081632653061229</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>0.73061224489795917</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="17"/>
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="18"/>
+        <v>0.72108843537414968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
